--- a/data/trans_bre/P45C_R2-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R2-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-2.134006107694132</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-11.4477169653696</v>
+        <v>-11.44771696536961</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.4839499508820733</v>
@@ -649,7 +649,7 @@
         <v>-0.1688194365520466</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.4909626646896538</v>
+        <v>-0.4909626646896539</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-12.28753520892174</v>
+        <v>-12.33529907798514</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.106457225692836</v>
+        <v>-5.273344888665521</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.735552609175723</v>
+        <v>-5.033961543751455</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-16.53197107374184</v>
+        <v>-16.56412085396388</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.6102708567865587</v>
+        <v>-0.6166951146907997</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3598118724994718</v>
+        <v>-0.3734021166316591</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.3351515758020486</v>
+        <v>-0.3542615166341445</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.6185473641851231</v>
+        <v>-0.6084943044846607</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-5.054884252434506</v>
+        <v>-5.064335984763212</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3839450534603231</v>
+        <v>0.4988520691521191</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5455047752690907</v>
+        <v>0.5179213051578402</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-6.60525138215719</v>
+        <v>-6.904388096628239</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.3300960312969285</v>
+        <v>-0.325629714484659</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04372263569940654</v>
+        <v>0.05140320193444894</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0511580349465816</v>
+        <v>0.04106922488377955</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.3377110891575507</v>
+        <v>-0.3300133930891489</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>1.953103059838238</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-4.564487714500539</v>
+        <v>-4.564487714500534</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.2113567752049961</v>
@@ -749,7 +749,7 @@
         <v>0.1403967234006088</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.2368579918710885</v>
+        <v>-0.2368579918710882</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-6.096965449666476</v>
+        <v>-6.346765032097975</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-10.34663276325192</v>
+        <v>-9.737848037887575</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.46347447662592</v>
+        <v>-1.713960854621618</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-8.03021898464284</v>
+        <v>-7.974183323773085</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3567351993861601</v>
+        <v>-0.3682601685918769</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4312670092996718</v>
+        <v>-0.4227103895908212</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.09598562448618407</v>
+        <v>-0.109864999855285</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3739239777621142</v>
+        <v>-0.3678835692779139</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-0.1041248509638838</v>
+        <v>-0.4928117776548083</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-3.114700655975738</v>
+        <v>-3.134436119376739</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.116993831021248</v>
+        <v>5.508388916006346</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-0.914145046434931</v>
+        <v>-0.9605422573476553</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.007237464277243891</v>
+        <v>-0.03553520004145436</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.1531005923949136</v>
+        <v>-0.1596656752586467</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4139834597937679</v>
+        <v>0.453637647706286</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.05394171480577537</v>
+        <v>-0.06132535929537444</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>1.045843489825304</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.6235014940491362</v>
+        <v>-0.623501494049139</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.1063870253541971</v>
@@ -849,7 +849,7 @@
         <v>0.07377237385556787</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.04143195352962188</v>
+        <v>-0.04143195352962206</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.633992754238968</v>
+        <v>-4.73911712895622</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.678499729745417</v>
+        <v>-6.266870663871484</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.427707365028975</v>
+        <v>-2.942070546606328</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.900135923239049</v>
+        <v>-3.854015794682687</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2758073805641295</v>
+        <v>-0.2871021407758642</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.325923179270817</v>
+        <v>-0.3088240053199399</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1514465165638756</v>
+        <v>-0.1834011113935252</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2298320398133915</v>
+        <v>-0.2318321713033281</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.3308411208538</v>
+        <v>1.584037042358961</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7681213625040536</v>
+        <v>0.6407336334761297</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.967320239541508</v>
+        <v>4.694229416851116</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.418781074655886</v>
+        <v>2.576813991844217</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.09742240300322393</v>
+        <v>0.1129012667161268</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04810088188331249</v>
+        <v>0.04358930519363981</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4150719439267329</v>
+        <v>0.3707126530958477</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.1820639419361375</v>
+        <v>0.1981849068545093</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.353140230361628</v>
+        <v>-1.936858066027493</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-9.902005186146663</v>
+        <v>-9.875360605446694</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-4.247869093438483</v>
+        <v>-4.808938284102631</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-5.120600015106352</v>
+        <v>-5.598226180635383</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.08186464936573921</v>
+        <v>-0.1005108010151304</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4527485653965648</v>
+        <v>-0.4539017695885823</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2695848405685419</v>
+        <v>-0.2972848758214484</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3345136834708374</v>
+        <v>-0.3558659702948841</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>9.395406412938371</v>
+        <v>8.999938977062369</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-0.008420376801427909</v>
+        <v>-0.2014605931335846</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.170520588102013</v>
+        <v>4.537616989636377</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.050435300074008</v>
+        <v>1.023733894482675</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.748376871048098</v>
+        <v>0.723741514684074</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.0007352943015011804</v>
+        <v>-0.01145659457850965</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4416476246420282</v>
+        <v>0.3723144342884524</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.09408408151769801</v>
+        <v>0.09809475459384397</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.065697781242771</v>
+        <v>-4.910685575718383</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.012184770489648</v>
+        <v>-5.749188161822657</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.787468282030973</v>
+        <v>-1.736807399919459</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.398375746362593</v>
+        <v>-5.366884586261792</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.30400071492272</v>
+        <v>-0.2955663587202495</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.3197346561091349</v>
+        <v>-0.311341889150463</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.1226255554683824</v>
+        <v>-0.1216774960084717</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.2980762640487334</v>
+        <v>-0.2953112020987478</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-1.466302217031632</v>
+        <v>-1.466702037581717</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-2.485869966178843</v>
+        <v>-2.463432238666236</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.621428961950138</v>
+        <v>1.554196174014996</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-1.805092335412461</v>
+        <v>-1.694623343165863</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.1009809774763865</v>
+        <v>-0.1016869839118687</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.1499384581862807</v>
+        <v>-0.1449482292522876</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1287505221111329</v>
+        <v>0.1210834701348378</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.1144300154629672</v>
+        <v>-0.1021616916884703</v>
       </c>
     </row>
     <row r="19">
